--- a/Code/Results/Cases/Case_0_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>12.3396139256281</v>
+        <v>13.37041050194737</v>
       </c>
       <c r="D2">
-        <v>2.112970873728219</v>
+        <v>4.155204696756664</v>
       </c>
       <c r="E2">
-        <v>11.48190621796917</v>
+        <v>13.72610928902244</v>
       </c>
       <c r="F2">
-        <v>29.14666048943259</v>
+        <v>26.5227943986173</v>
       </c>
       <c r="G2">
-        <v>43.78931612971414</v>
+        <v>34.09956198786416</v>
       </c>
       <c r="H2">
-        <v>11.77000713990267</v>
+        <v>14.5584433102773</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.997225224451916</v>
+        <v>9.145448808988293</v>
       </c>
       <c r="O2">
-        <v>22.90548782138464</v>
+        <v>23.13022551420615</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11.69496422940336</v>
+        <v>13.2699848469067</v>
       </c>
       <c r="D3">
-        <v>2.15393844437869</v>
+        <v>4.164241322338191</v>
       </c>
       <c r="E3">
-        <v>10.95250588193758</v>
+        <v>13.66501597118275</v>
       </c>
       <c r="F3">
-        <v>27.38153174917011</v>
+        <v>26.12679731536191</v>
       </c>
       <c r="G3">
-        <v>40.90605478556722</v>
+        <v>33.26842763544546</v>
       </c>
       <c r="H3">
-        <v>11.25992765445822</v>
+        <v>14.50374877142434</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.857945756131952</v>
+        <v>9.149145858536437</v>
       </c>
       <c r="O3">
-        <v>21.62275049050595</v>
+        <v>22.89358244757697</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>11.29126382270342</v>
+        <v>13.21156305405435</v>
       </c>
       <c r="D4">
-        <v>2.178976764043784</v>
+        <v>4.169974493241562</v>
       </c>
       <c r="E4">
-        <v>10.62421540858481</v>
+        <v>13.63080591497898</v>
       </c>
       <c r="F4">
-        <v>26.26270987551223</v>
+        <v>25.88873046564299</v>
       </c>
       <c r="G4">
-        <v>39.06558531871714</v>
+        <v>32.75873017636831</v>
       </c>
       <c r="H4">
-        <v>10.94449726617827</v>
+        <v>14.47347989785779</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.775122766763737</v>
+        <v>9.153051092502331</v>
       </c>
       <c r="O4">
-        <v>20.81512455747082</v>
+        <v>22.75360380579048</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>11.1249544829733</v>
+        <v>13.18859190932554</v>
       </c>
       <c r="D5">
-        <v>2.189167923066547</v>
+        <v>4.172357565646865</v>
       </c>
       <c r="E5">
-        <v>10.48978200847069</v>
+        <v>13.61770494133451</v>
       </c>
       <c r="F5">
-        <v>25.79832054831144</v>
+        <v>25.79312095759185</v>
       </c>
       <c r="G5">
-        <v>38.29822910821715</v>
+        <v>32.55152567640879</v>
       </c>
       <c r="H5">
-        <v>10.81555067173928</v>
+        <v>14.46198665716695</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.742064499057505</v>
+        <v>9.155053650312563</v>
       </c>
       <c r="O5">
-        <v>20.48129775150759</v>
+        <v>22.69796028144013</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>11.09723646546874</v>
+        <v>13.18482866954961</v>
       </c>
       <c r="D6">
-        <v>2.190859894836606</v>
+        <v>4.172756106706081</v>
       </c>
       <c r="E6">
-        <v>10.46742527226347</v>
+        <v>13.61558052323217</v>
       </c>
       <c r="F6">
-        <v>25.72071029190898</v>
+        <v>25.77733359755572</v>
       </c>
       <c r="G6">
-        <v>38.16977341679321</v>
+        <v>32.51716006840246</v>
       </c>
       <c r="H6">
-        <v>10.79411968514271</v>
+        <v>14.46012926374597</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.736617477988228</v>
+        <v>9.155411001309934</v>
       </c>
       <c r="O6">
-        <v>20.42559237869871</v>
+        <v>22.68880692487073</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>11.28902792619503</v>
+        <v>13.21124984418015</v>
       </c>
       <c r="D7">
-        <v>2.179114233302036</v>
+        <v>4.170006442449698</v>
       </c>
       <c r="E7">
-        <v>10.62240480151281</v>
+        <v>13.63062581798028</v>
       </c>
       <c r="F7">
-        <v>26.25648067819457</v>
+        <v>25.88743518790134</v>
       </c>
       <c r="G7">
-        <v>39.05530625365203</v>
+        <v>32.75593325152887</v>
       </c>
       <c r="H7">
-        <v>10.9427596677006</v>
+        <v>14.47332147840508</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.7746741065371</v>
+        <v>9.153076435169229</v>
       </c>
       <c r="O7">
-        <v>20.81064105099318</v>
+        <v>22.75284763561879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>12.11907345434643</v>
+        <v>13.33512466194463</v>
       </c>
       <c r="D8">
-        <v>2.127131212772321</v>
+        <v>4.158282400405041</v>
       </c>
       <c r="E8">
-        <v>11.30012931162216</v>
+        <v>13.70436527329523</v>
       </c>
       <c r="F8">
-        <v>28.54549008319196</v>
+        <v>26.38527843459258</v>
       </c>
       <c r="G8">
-        <v>42.80985387526117</v>
+        <v>33.81306139919641</v>
       </c>
       <c r="H8">
-        <v>11.59468349942801</v>
+        <v>14.53890214088211</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.948651200242811</v>
+        <v>9.146384169886678</v>
       </c>
       <c r="O8">
-        <v>22.4675238433598</v>
+        <v>23.04756400656907</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.67811101826139</v>
+        <v>13.60273188941013</v>
       </c>
       <c r="D9">
-        <v>2.023428941809827</v>
+        <v>4.136741472071797</v>
       </c>
       <c r="E9">
-        <v>12.59779638852249</v>
+        <v>13.87468339608514</v>
       </c>
       <c r="F9">
-        <v>32.74620323208572</v>
+        <v>27.39610705352773</v>
       </c>
       <c r="G9">
-        <v>49.67479200215203</v>
+        <v>35.87645284445384</v>
       </c>
       <c r="H9">
-        <v>12.84969864858951</v>
+        <v>14.69338825875395</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.310601504760498</v>
+        <v>9.146232988110754</v>
       </c>
       <c r="O9">
-        <v>25.54764927553176</v>
+        <v>23.66491092064372</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>14.77609121088892</v>
+        <v>13.81293516011305</v>
       </c>
       <c r="D10">
-        <v>1.944856503704814</v>
+        <v>4.121777607462654</v>
       </c>
       <c r="E10">
-        <v>13.5265654694981</v>
+        <v>14.01477531325477</v>
       </c>
       <c r="F10">
-        <v>35.85722390870172</v>
+        <v>28.15212020161776</v>
       </c>
       <c r="G10">
-        <v>54.4131892018571</v>
+        <v>37.36806833338208</v>
       </c>
       <c r="H10">
-        <v>13.75182966592632</v>
+        <v>14.82205274249361</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.588574365895552</v>
+        <v>9.15401993156674</v>
       </c>
       <c r="O10">
-        <v>27.89504581282086</v>
+        <v>24.13857679840657</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>15.26480880001522</v>
+        <v>13.91117940161945</v>
       </c>
       <c r="D11">
-        <v>1.908262014324779</v>
+        <v>4.115152714106184</v>
       </c>
       <c r="E11">
-        <v>13.94315565402395</v>
+        <v>14.08158059664056</v>
       </c>
       <c r="F11">
-        <v>37.22351850053891</v>
+        <v>28.49733257179048</v>
       </c>
       <c r="G11">
-        <v>56.49191087603117</v>
+        <v>38.03778817837411</v>
       </c>
       <c r="H11">
-        <v>14.15724985807592</v>
+        <v>14.88372749745573</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.717591091853382</v>
+        <v>9.159272117890168</v>
       </c>
       <c r="O11">
-        <v>28.97261252421565</v>
+        <v>24.35755877411361</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15.44832752768195</v>
+        <v>13.94872960505776</v>
       </c>
       <c r="D12">
-        <v>1.89425058314564</v>
+        <v>4.112669886466444</v>
       </c>
       <c r="E12">
-        <v>14.10004548419604</v>
+        <v>14.10730431498534</v>
       </c>
       <c r="F12">
-        <v>37.73374308522936</v>
+        <v>28.62811052037356</v>
       </c>
       <c r="G12">
-        <v>57.26837273152046</v>
+        <v>38.28985415784098</v>
       </c>
       <c r="H12">
-        <v>14.31003839329749</v>
+        <v>14.90752024431426</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.766816980318906</v>
+        <v>9.161506106580983</v>
       </c>
       <c r="O12">
-        <v>29.37489765719582</v>
+        <v>24.44091257073005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>15.40887202321344</v>
+        <v>13.94062753326044</v>
       </c>
       <c r="D13">
-        <v>1.897275581787593</v>
+        <v>4.113203462258356</v>
       </c>
       <c r="E13">
-        <v>14.06629479130716</v>
+        <v>14.10174557542715</v>
       </c>
       <c r="F13">
-        <v>37.62417164436891</v>
+        <v>28.59994484855992</v>
       </c>
       <c r="G13">
-        <v>57.10161764107146</v>
+        <v>38.23563997656873</v>
       </c>
       <c r="H13">
-        <v>14.27716540569053</v>
+        <v>14.90237681339962</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.756198757865042</v>
+        <v>9.16101409038983</v>
       </c>
       <c r="O13">
-        <v>29.28851125268352</v>
+        <v>24.42294289741475</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>15.27993791709495</v>
+        <v>13.91426189276561</v>
       </c>
       <c r="D14">
-        <v>1.907112563430918</v>
+        <v>4.114947933691749</v>
       </c>
       <c r="E14">
-        <v>13.95608036624274</v>
+        <v>14.08368846160816</v>
       </c>
       <c r="F14">
-        <v>37.26563710219147</v>
+        <v>28.50809142899396</v>
       </c>
       <c r="G14">
-        <v>56.55600317996851</v>
+        <v>38.05855820458878</v>
       </c>
       <c r="H14">
-        <v>14.16983462641123</v>
+        <v>14.88567625069121</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.721633489092614</v>
+        <v>9.159451002355386</v>
       </c>
       <c r="O14">
-        <v>29.00582305771039</v>
+        <v>24.3644081484729</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>15.20076095260592</v>
+        <v>13.89815650436399</v>
       </c>
       <c r="D15">
-        <v>1.913116959188462</v>
+        <v>4.116019832769152</v>
       </c>
       <c r="E15">
-        <v>13.88845842261563</v>
+        <v>14.07268293517138</v>
       </c>
       <c r="F15">
-        <v>37.0450989348722</v>
+        <v>28.45183163900171</v>
       </c>
       <c r="G15">
-        <v>56.22041587888267</v>
+        <v>37.94988186959795</v>
       </c>
       <c r="H15">
-        <v>14.10399549006108</v>
+        <v>14.87550325658975</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.700509600501318</v>
+        <v>9.158525459155161</v>
       </c>
       <c r="O15">
-        <v>28.83192397963218</v>
+        <v>24.32860772178099</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>14.74393509332478</v>
+        <v>13.80656489398881</v>
       </c>
       <c r="D16">
-        <v>1.947228301866373</v>
+        <v>4.12221419876768</v>
       </c>
       <c r="E16">
-        <v>13.49921955074593</v>
+        <v>14.0104699580445</v>
       </c>
       <c r="F16">
-        <v>35.76691835299001</v>
+        <v>28.12957441757662</v>
       </c>
       <c r="G16">
-        <v>54.27582160212803</v>
+        <v>37.32409916418757</v>
       </c>
       <c r="H16">
-        <v>13.72523216710986</v>
+        <v>14.81808422271523</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.580194396774091</v>
+        <v>9.153711033056513</v>
       </c>
       <c r="O16">
-        <v>27.82380580593458</v>
+        <v>24.12433005285329</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>14.46092121650088</v>
+        <v>13.751026925196</v>
       </c>
       <c r="D17">
-        <v>1.96791519664932</v>
+        <v>4.126060683422858</v>
       </c>
       <c r="E17">
-        <v>13.25890136659387</v>
+        <v>13.97308092542883</v>
       </c>
       <c r="F17">
-        <v>34.96979482894559</v>
+        <v>27.93211667036691</v>
       </c>
       <c r="G17">
-        <v>53.0634218342862</v>
+        <v>36.93774073662581</v>
       </c>
       <c r="H17">
-        <v>13.49157799023525</v>
+        <v>14.78365497450513</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.507040849120823</v>
+        <v>9.151194975731721</v>
       </c>
       <c r="O17">
-        <v>27.1948645606921</v>
+        <v>23.99985807693579</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>14.29712451220779</v>
+        <v>13.71933155048398</v>
       </c>
       <c r="D18">
-        <v>1.979735696092653</v>
+        <v>4.128290253099933</v>
       </c>
       <c r="E18">
-        <v>13.12011934081844</v>
+        <v>13.95186638201745</v>
       </c>
       <c r="F18">
-        <v>34.50646632894855</v>
+        <v>27.81867415254598</v>
       </c>
       <c r="G18">
-        <v>52.35882764310047</v>
+        <v>36.71470216004705</v>
       </c>
       <c r="H18">
-        <v>13.35671867957804</v>
+        <v>14.76414908063748</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.465205917264926</v>
+        <v>9.149908803807708</v>
       </c>
       <c r="O18">
-        <v>26.82919622028646</v>
+        <v>23.92859985185313</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>14.24149202999592</v>
+        <v>13.70864363409635</v>
       </c>
       <c r="D19">
-        <v>1.983725406288407</v>
+        <v>4.129048106701058</v>
       </c>
       <c r="E19">
-        <v>13.07303528074359</v>
+        <v>13.94473390647453</v>
       </c>
       <c r="F19">
-        <v>34.34875356006614</v>
+        <v>27.78029090189899</v>
       </c>
       <c r="G19">
-        <v>52.11900926364256</v>
+        <v>36.63905374850774</v>
       </c>
       <c r="H19">
-        <v>13.3109784168223</v>
+        <v>14.7575961366013</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.451082796652874</v>
+        <v>9.149501000575132</v>
       </c>
       <c r="O19">
-        <v>26.70470884515769</v>
+        <v>23.90453280603566</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>14.49115363815537</v>
+        <v>13.75691352165736</v>
       </c>
       <c r="D20">
-        <v>1.965721335755672</v>
+        <v>4.125649443604354</v>
       </c>
       <c r="E20">
-        <v>13.28454152098954</v>
+        <v>13.97703108809826</v>
       </c>
       <c r="F20">
-        <v>35.05514994340768</v>
+        <v>27.95312391127026</v>
       </c>
       <c r="G20">
-        <v>53.1932324093266</v>
+        <v>36.97895569104341</v>
       </c>
       <c r="H20">
-        <v>13.51649951312887</v>
+        <v>14.78728940031411</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.51480323294399</v>
+        <v>9.1514461568075</v>
       </c>
       <c r="O20">
-        <v>27.26222060548826</v>
+        <v>24.01307422436246</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>15.31785085761549</v>
+        <v>13.92199693653995</v>
       </c>
       <c r="D21">
-        <v>1.904227649681138</v>
+        <v>4.11443484052238</v>
       </c>
       <c r="E21">
-        <v>13.9884764291096</v>
+        <v>14.08898084690301</v>
       </c>
       <c r="F21">
-        <v>37.37113978802027</v>
+        <v>28.5350705948232</v>
       </c>
       <c r="G21">
-        <v>56.71655080787116</v>
+        <v>38.11061535280589</v>
       </c>
       <c r="H21">
-        <v>14.20138027121633</v>
+        <v>14.8905698456515</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.731776061715313</v>
+        <v>9.159903474271859</v>
       </c>
       <c r="O21">
-        <v>29.08901015906278</v>
+        <v>24.38159014469169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>15.84914342333551</v>
+        <v>14.03189830191671</v>
       </c>
       <c r="D22">
-        <v>1.863123518527167</v>
+        <v>4.107256118724015</v>
       </c>
       <c r="E22">
-        <v>14.44351709642495</v>
+        <v>14.1646214060468</v>
       </c>
       <c r="F22">
-        <v>38.84316599288123</v>
+        <v>28.91565940356292</v>
       </c>
       <c r="G22">
-        <v>58.95706060437472</v>
+        <v>38.84111764272442</v>
       </c>
       <c r="H22">
-        <v>14.68421330404484</v>
+        <v>14.96061455826215</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.875742737983223</v>
+        <v>9.166858972503363</v>
       </c>
       <c r="O22">
-        <v>30.24943251787864</v>
+        <v>24.62490897187235</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>15.56639863725971</v>
+        <v>13.97306795110978</v>
       </c>
       <c r="D23">
-        <v>1.885156654599458</v>
+        <v>4.11107386073448</v>
       </c>
       <c r="E23">
-        <v>14.20111004913613</v>
+        <v>14.12402979452889</v>
       </c>
       <c r="F23">
-        <v>38.06124082861943</v>
+        <v>28.71255181703465</v>
       </c>
       <c r="G23">
-        <v>57.76681540859698</v>
+        <v>38.45215282951923</v>
       </c>
       <c r="H23">
-        <v>14.40848930494565</v>
+        <v>14.92300244718494</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.798705024089802</v>
+        <v>9.163016315270008</v>
       </c>
       <c r="O23">
-        <v>29.63308253406945</v>
+        <v>24.49484349743259</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>14.47748894955831</v>
+        <v>13.75425145984127</v>
       </c>
       <c r="D24">
-        <v>1.966713404296382</v>
+        <v>4.125835308475732</v>
       </c>
       <c r="E24">
-        <v>13.27295153664238</v>
+        <v>13.9752443433438</v>
       </c>
       <c r="F24">
-        <v>35.01657664628334</v>
+        <v>27.94362628268639</v>
       </c>
       <c r="G24">
-        <v>53.13456865003477</v>
+        <v>36.96032524213592</v>
       </c>
       <c r="H24">
-        <v>13.50523413654642</v>
+        <v>14.78564537839155</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.511293167676873</v>
+        <v>9.15133209834373</v>
       </c>
       <c r="O24">
-        <v>27.23178166556919</v>
+        <v>24.0070982565469</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.26441002226762</v>
+        <v>13.52783970910518</v>
       </c>
       <c r="D25">
-        <v>2.051798577092284</v>
+        <v>4.142415879446895</v>
       </c>
       <c r="E25">
-        <v>12.25077551460984</v>
+        <v>13.82592466555292</v>
       </c>
       <c r="F25">
-        <v>31.64167568045776</v>
+        <v>27.11974928405034</v>
       </c>
       <c r="G25">
-        <v>47.85993038752199</v>
+        <v>35.3212553033973</v>
       </c>
       <c r="H25">
-        <v>12.51337227027923</v>
+        <v>14.64888441999574</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.21053418882662</v>
+        <v>9.14488554871282</v>
       </c>
       <c r="O25">
-        <v>24.73361401382245</v>
+        <v>23.49408141794444</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_217/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_217/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.37041050194737</v>
+        <v>12.3396139256281</v>
       </c>
       <c r="D2">
-        <v>4.155204696756664</v>
+        <v>2.112970873728219</v>
       </c>
       <c r="E2">
-        <v>13.72610928902244</v>
+        <v>11.48190621796918</v>
       </c>
       <c r="F2">
-        <v>26.5227943986173</v>
+        <v>29.14666048943257</v>
       </c>
       <c r="G2">
-        <v>34.09956198786416</v>
+        <v>43.78931612971409</v>
       </c>
       <c r="H2">
-        <v>14.5584433102773</v>
+        <v>11.77000713990269</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.145448808988293</v>
+        <v>5.997225224451918</v>
       </c>
       <c r="O2">
-        <v>23.13022551420615</v>
+        <v>22.90548782138464</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13.2699848469067</v>
+        <v>11.69496422940339</v>
       </c>
       <c r="D3">
-        <v>4.164241322338191</v>
+        <v>2.15393844437889</v>
       </c>
       <c r="E3">
-        <v>13.66501597118275</v>
+        <v>10.95250588193758</v>
       </c>
       <c r="F3">
-        <v>26.12679731536191</v>
+        <v>27.38153174917014</v>
       </c>
       <c r="G3">
-        <v>33.26842763544546</v>
+        <v>40.90605478556733</v>
       </c>
       <c r="H3">
-        <v>14.50374877142434</v>
+        <v>11.25992765445829</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.149145858536437</v>
+        <v>5.857945756131952</v>
       </c>
       <c r="O3">
-        <v>22.89358244757697</v>
+        <v>21.62275049050599</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>13.21156305405435</v>
+        <v>11.29126382270339</v>
       </c>
       <c r="D4">
-        <v>4.169974493241562</v>
+        <v>2.178976764043783</v>
       </c>
       <c r="E4">
-        <v>13.63080591497898</v>
+        <v>10.62421540858486</v>
       </c>
       <c r="F4">
-        <v>25.88873046564299</v>
+        <v>26.26270987551215</v>
       </c>
       <c r="G4">
-        <v>32.75873017636831</v>
+        <v>39.06558531871713</v>
       </c>
       <c r="H4">
-        <v>14.47347989785779</v>
+        <v>10.94449726617821</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.153051092502331</v>
+        <v>5.775122766763804</v>
       </c>
       <c r="O4">
-        <v>22.75360380579048</v>
+        <v>20.81512455747074</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>13.18859190932554</v>
+        <v>11.12495448297337</v>
       </c>
       <c r="D5">
-        <v>4.172357565646865</v>
+        <v>2.189167923066611</v>
       </c>
       <c r="E5">
-        <v>13.61770494133451</v>
+        <v>10.4897820084707</v>
       </c>
       <c r="F5">
-        <v>25.79312095759185</v>
+        <v>25.79832054831146</v>
       </c>
       <c r="G5">
-        <v>32.55152567640879</v>
+        <v>38.29822910821715</v>
       </c>
       <c r="H5">
-        <v>14.46198665716695</v>
+        <v>10.81555067173931</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.155053650312563</v>
+        <v>5.742064499057522</v>
       </c>
       <c r="O5">
-        <v>22.69796028144013</v>
+        <v>20.48129775150759</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>13.18482866954961</v>
+        <v>11.09723646546875</v>
       </c>
       <c r="D6">
-        <v>4.172756106706081</v>
+        <v>2.190859894836736</v>
       </c>
       <c r="E6">
-        <v>13.61558052323217</v>
+        <v>10.46742527226345</v>
       </c>
       <c r="F6">
-        <v>25.77733359755572</v>
+        <v>25.72071029190903</v>
       </c>
       <c r="G6">
-        <v>32.51716006840246</v>
+        <v>38.1697734167932</v>
       </c>
       <c r="H6">
-        <v>14.46012926374597</v>
+        <v>10.79411968514281</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.155411001309934</v>
+        <v>5.736617477988219</v>
       </c>
       <c r="O6">
-        <v>22.68880692487073</v>
+        <v>20.42559237869878</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>13.21124984418015</v>
+        <v>11.28902792619504</v>
       </c>
       <c r="D7">
-        <v>4.170006442449698</v>
+        <v>2.179114233302234</v>
       </c>
       <c r="E7">
-        <v>13.63062581798028</v>
+        <v>10.62240480151276</v>
       </c>
       <c r="F7">
-        <v>25.88743518790134</v>
+        <v>26.25648067819458</v>
       </c>
       <c r="G7">
-        <v>32.75593325152887</v>
+        <v>39.05530625365202</v>
       </c>
       <c r="H7">
-        <v>14.47332147840508</v>
+        <v>10.94275966770067</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.153076435169229</v>
+        <v>5.774674106537098</v>
       </c>
       <c r="O7">
-        <v>22.75284763561879</v>
+        <v>20.8106410509932</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>13.33512466194463</v>
+        <v>12.11907345434642</v>
       </c>
       <c r="D8">
-        <v>4.158282400405041</v>
+        <v>2.12713121277219</v>
       </c>
       <c r="E8">
-        <v>13.70436527329523</v>
+        <v>11.30012931162215</v>
       </c>
       <c r="F8">
-        <v>26.38527843459258</v>
+        <v>28.54549008319198</v>
       </c>
       <c r="G8">
-        <v>33.81306139919641</v>
+        <v>42.80985387526126</v>
       </c>
       <c r="H8">
-        <v>14.53890214088211</v>
+        <v>11.59468349942799</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.146384169886678</v>
+        <v>5.948651200242805</v>
       </c>
       <c r="O8">
-        <v>23.04756400656907</v>
+        <v>22.4675238433598</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>13.60273188941013</v>
+        <v>13.67811101826137</v>
       </c>
       <c r="D9">
-        <v>4.136741472071797</v>
+        <v>2.023428941809893</v>
       </c>
       <c r="E9">
-        <v>13.87468339608514</v>
+        <v>12.5977963885225</v>
       </c>
       <c r="F9">
-        <v>27.39610705352773</v>
+        <v>32.74620323208568</v>
       </c>
       <c r="G9">
-        <v>35.87645284445384</v>
+        <v>49.67479200215196</v>
       </c>
       <c r="H9">
-        <v>14.69338825875395</v>
+        <v>12.84969864858951</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.146232988110754</v>
+        <v>6.31060150476049</v>
       </c>
       <c r="O9">
-        <v>23.66491092064372</v>
+        <v>25.54764927553175</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>13.81293516011305</v>
+        <v>14.77609121088892</v>
       </c>
       <c r="D10">
-        <v>4.121777607462654</v>
+        <v>1.944856503704953</v>
       </c>
       <c r="E10">
-        <v>14.01477531325477</v>
+        <v>13.52656546949809</v>
       </c>
       <c r="F10">
-        <v>28.15212020161776</v>
+        <v>35.85722390870173</v>
       </c>
       <c r="G10">
-        <v>37.36806833338208</v>
+        <v>54.4131892018571</v>
       </c>
       <c r="H10">
-        <v>14.82205274249361</v>
+        <v>13.75182966592632</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.15401993156674</v>
+        <v>6.588574365895576</v>
       </c>
       <c r="O10">
-        <v>24.13857679840657</v>
+        <v>27.89504581282087</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>13.91117940161945</v>
+        <v>15.26480880001523</v>
       </c>
       <c r="D11">
-        <v>4.115152714106184</v>
+        <v>1.908262014324907</v>
       </c>
       <c r="E11">
-        <v>14.08158059664056</v>
+        <v>13.94315565402397</v>
       </c>
       <c r="F11">
-        <v>28.49733257179048</v>
+        <v>37.22351850053885</v>
       </c>
       <c r="G11">
-        <v>38.03778817837411</v>
+        <v>56.49191087603111</v>
       </c>
       <c r="H11">
-        <v>14.88372749745573</v>
+        <v>14.15724985807595</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.159272117890168</v>
+        <v>6.7175910918534</v>
       </c>
       <c r="O11">
-        <v>24.35755877411361</v>
+        <v>28.97261252421555</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>13.94872960505776</v>
+        <v>15.44832752768197</v>
       </c>
       <c r="D12">
-        <v>4.112669886466444</v>
+        <v>1.894250583145571</v>
       </c>
       <c r="E12">
-        <v>14.10730431498534</v>
+        <v>14.10004548419605</v>
       </c>
       <c r="F12">
-        <v>28.62811052037356</v>
+        <v>37.73374308522938</v>
       </c>
       <c r="G12">
-        <v>38.28985415784098</v>
+        <v>57.26837273152048</v>
       </c>
       <c r="H12">
-        <v>14.90752024431426</v>
+        <v>14.3100383932975</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.161506106580983</v>
+        <v>6.76681698031889</v>
       </c>
       <c r="O12">
-        <v>24.44091257073005</v>
+        <v>29.37489765719584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>13.94062753326044</v>
+        <v>15.4088720232135</v>
       </c>
       <c r="D13">
-        <v>4.113203462258356</v>
+        <v>1.897275581787728</v>
       </c>
       <c r="E13">
-        <v>14.10174557542715</v>
+        <v>14.06629479130719</v>
       </c>
       <c r="F13">
-        <v>28.59994484855992</v>
+        <v>37.62417164436904</v>
       </c>
       <c r="G13">
-        <v>38.23563997656873</v>
+        <v>57.1016176410716</v>
       </c>
       <c r="H13">
-        <v>14.90237681339962</v>
+        <v>14.27716540569054</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.16101409038983</v>
+        <v>6.756198757865022</v>
       </c>
       <c r="O13">
-        <v>24.42294289741475</v>
+        <v>29.2885112526836</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>13.91426189276561</v>
+        <v>15.27993791709499</v>
       </c>
       <c r="D14">
-        <v>4.114947933691749</v>
+        <v>1.907112563430918</v>
       </c>
       <c r="E14">
-        <v>14.08368846160816</v>
+        <v>13.9560803662427</v>
       </c>
       <c r="F14">
-        <v>28.50809142899396</v>
+        <v>37.26563710219145</v>
       </c>
       <c r="G14">
-        <v>38.05855820458878</v>
+        <v>56.55600317996845</v>
       </c>
       <c r="H14">
-        <v>14.88567625069121</v>
+        <v>14.16983462641125</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.159451002355386</v>
+        <v>6.721633489092565</v>
       </c>
       <c r="O14">
-        <v>24.3644081484729</v>
+        <v>29.00582305771036</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>13.89815650436399</v>
+        <v>15.20076095260593</v>
       </c>
       <c r="D15">
-        <v>4.116019832769152</v>
+        <v>1.913116959188527</v>
       </c>
       <c r="E15">
-        <v>14.07268293517138</v>
+        <v>13.88845842261563</v>
       </c>
       <c r="F15">
-        <v>28.45183163900171</v>
+        <v>37.04509893487216</v>
       </c>
       <c r="G15">
-        <v>37.94988186959795</v>
+        <v>56.22041587888258</v>
       </c>
       <c r="H15">
-        <v>14.87550325658975</v>
+        <v>14.10399549006108</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.158525459155161</v>
+        <v>6.700509600501324</v>
       </c>
       <c r="O15">
-        <v>24.32860772178099</v>
+        <v>28.83192397963213</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>13.80656489398881</v>
+        <v>14.74393509332482</v>
       </c>
       <c r="D16">
-        <v>4.12221419876768</v>
+        <v>1.947228301866305</v>
       </c>
       <c r="E16">
-        <v>14.0104699580445</v>
+        <v>13.49921955074594</v>
       </c>
       <c r="F16">
-        <v>28.12957441757662</v>
+        <v>35.76691835298998</v>
       </c>
       <c r="G16">
-        <v>37.32409916418757</v>
+        <v>54.27582160212802</v>
       </c>
       <c r="H16">
-        <v>14.81808422271523</v>
+        <v>13.72523216710987</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.153711033056513</v>
+        <v>6.580194396774096</v>
       </c>
       <c r="O16">
-        <v>24.12433005285329</v>
+        <v>27.82380580593455</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>13.751026925196</v>
+        <v>14.46092121650084</v>
       </c>
       <c r="D17">
-        <v>4.126060683422858</v>
+        <v>1.967915196649253</v>
       </c>
       <c r="E17">
-        <v>13.97308092542883</v>
+        <v>13.25890136659387</v>
       </c>
       <c r="F17">
-        <v>27.93211667036691</v>
+        <v>34.96979482894564</v>
       </c>
       <c r="G17">
-        <v>36.93774073662581</v>
+        <v>53.0634218342863</v>
       </c>
       <c r="H17">
-        <v>14.78365497450513</v>
+        <v>13.49157799023527</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.151194975731721</v>
+        <v>6.507040849120785</v>
       </c>
       <c r="O17">
-        <v>23.99985807693579</v>
+        <v>27.19486456069215</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>13.71933155048398</v>
+        <v>14.29712451220775</v>
       </c>
       <c r="D18">
-        <v>4.128290253099933</v>
+        <v>1.979735696092852</v>
       </c>
       <c r="E18">
-        <v>13.95186638201745</v>
+        <v>13.12011934081839</v>
       </c>
       <c r="F18">
-        <v>27.81867415254598</v>
+        <v>34.50646632894854</v>
       </c>
       <c r="G18">
-        <v>36.71470216004705</v>
+        <v>52.35882764310043</v>
       </c>
       <c r="H18">
-        <v>14.76414908063748</v>
+        <v>13.35671867957804</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.149908803807708</v>
+        <v>6.465205917264917</v>
       </c>
       <c r="O18">
-        <v>23.92859985185313</v>
+        <v>26.82919622028644</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.70864363409635</v>
+        <v>14.24149202999595</v>
       </c>
       <c r="D19">
-        <v>4.129048106701058</v>
+        <v>1.983725406288476</v>
       </c>
       <c r="E19">
-        <v>13.94473390647453</v>
+        <v>13.07303528074361</v>
       </c>
       <c r="F19">
-        <v>27.78029090189899</v>
+        <v>34.34875356006621</v>
       </c>
       <c r="G19">
-        <v>36.63905374850774</v>
+        <v>52.11900926364266</v>
       </c>
       <c r="H19">
-        <v>14.7575961366013</v>
+        <v>13.31097841682231</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.149501000575132</v>
+        <v>6.451082796652894</v>
       </c>
       <c r="O19">
-        <v>23.90453280603566</v>
+        <v>26.70470884515774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>13.75691352165736</v>
+        <v>14.49115363815541</v>
       </c>
       <c r="D20">
-        <v>4.125649443604354</v>
+        <v>1.965721335755676</v>
       </c>
       <c r="E20">
-        <v>13.97703108809826</v>
+        <v>13.28454152098956</v>
       </c>
       <c r="F20">
-        <v>27.95312391127026</v>
+        <v>35.05514994340774</v>
       </c>
       <c r="G20">
-        <v>36.97895569104341</v>
+        <v>53.19323240932675</v>
       </c>
       <c r="H20">
-        <v>14.78728940031411</v>
+        <v>13.51649951312887</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.1514461568075</v>
+        <v>6.514803232943986</v>
       </c>
       <c r="O20">
-        <v>24.01307422436246</v>
+        <v>27.26222060548834</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>13.92199693653995</v>
+        <v>15.31785085761552</v>
       </c>
       <c r="D21">
-        <v>4.11443484052238</v>
+        <v>1.904227649681071</v>
       </c>
       <c r="E21">
-        <v>14.08898084690301</v>
+        <v>13.9884764291096</v>
       </c>
       <c r="F21">
-        <v>28.5350705948232</v>
+        <v>37.37113978802024</v>
       </c>
       <c r="G21">
-        <v>38.11061535280589</v>
+        <v>56.71655080787114</v>
       </c>
       <c r="H21">
-        <v>14.8905698456515</v>
+        <v>14.2013802712163</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.159903474271859</v>
+        <v>6.731776061715319</v>
       </c>
       <c r="O21">
-        <v>24.38159014469169</v>
+        <v>29.08901015906277</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>14.03189830191671</v>
+        <v>15.8491434233355</v>
       </c>
       <c r="D22">
-        <v>4.107256118724015</v>
+        <v>1.863123518527168</v>
       </c>
       <c r="E22">
-        <v>14.1646214060468</v>
+        <v>14.44351709642497</v>
       </c>
       <c r="F22">
-        <v>28.91565940356292</v>
+        <v>38.84316599288132</v>
       </c>
       <c r="G22">
-        <v>38.84111764272442</v>
+        <v>58.95706060437487</v>
       </c>
       <c r="H22">
-        <v>14.96061455826215</v>
+        <v>14.68421330404488</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.166858972503363</v>
+        <v>6.875742737983234</v>
       </c>
       <c r="O22">
-        <v>24.62490897187235</v>
+        <v>30.24943251787871</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>13.97306795110978</v>
+        <v>15.56639863725977</v>
       </c>
       <c r="D23">
-        <v>4.11107386073448</v>
+        <v>1.885156654599522</v>
       </c>
       <c r="E23">
-        <v>14.12402979452889</v>
+        <v>14.20111004913614</v>
       </c>
       <c r="F23">
-        <v>28.71255181703465</v>
+        <v>38.06124082861954</v>
       </c>
       <c r="G23">
-        <v>38.45215282951923</v>
+        <v>57.76681540859715</v>
       </c>
       <c r="H23">
-        <v>14.92300244718494</v>
+        <v>14.40848930494566</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.163016315270008</v>
+        <v>6.798705024089763</v>
       </c>
       <c r="O23">
-        <v>24.49484349743259</v>
+        <v>29.63308253406952</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>13.75425145984127</v>
+        <v>14.47748894955831</v>
       </c>
       <c r="D24">
-        <v>4.125835308475732</v>
+        <v>1.966713404296389</v>
       </c>
       <c r="E24">
-        <v>13.9752443433438</v>
+        <v>13.27295153664238</v>
       </c>
       <c r="F24">
-        <v>27.94362628268639</v>
+        <v>35.01657664628339</v>
       </c>
       <c r="G24">
-        <v>36.96032524213592</v>
+        <v>53.13456865003485</v>
       </c>
       <c r="H24">
-        <v>14.78564537839155</v>
+        <v>13.50523413654641</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.15133209834373</v>
+        <v>6.51129316767686</v>
       </c>
       <c r="O24">
-        <v>24.0070982565469</v>
+        <v>27.23178166556924</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>13.52783970910518</v>
+        <v>13.2644100222676</v>
       </c>
       <c r="D25">
-        <v>4.142415879446895</v>
+        <v>2.051798577092351</v>
       </c>
       <c r="E25">
-        <v>13.82592466555292</v>
+        <v>12.25077551460983</v>
       </c>
       <c r="F25">
-        <v>27.11974928405034</v>
+        <v>31.64167568045778</v>
       </c>
       <c r="G25">
-        <v>35.3212553033973</v>
+        <v>47.85993038752203</v>
       </c>
       <c r="H25">
-        <v>14.64888441999574</v>
+        <v>12.51337227027922</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.14488554871282</v>
+        <v>6.210534188826598</v>
       </c>
       <c r="O25">
-        <v>23.49408141794444</v>
+        <v>24.73361401382246</v>
       </c>
     </row>
   </sheetData>
